--- a/biology/Botanique/Veronica_aphylla/Veronica_aphylla.xlsx
+++ b/biology/Botanique/Veronica_aphylla/Veronica_aphylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Veronica aphylla, la véronique sans feuilles, aussi appelée véronique aphylle ou véronique à tige nue est une petite plante vivace poussant en montagne. Contrairement à ce que laisse penser son nom, elle a des feuilles, mais celles-ci forment une sorte de rosette au ras du sol et les fleurs sont portées par un long pédoncule nu, semblable à une tige.
 La plante appartient au genre Veronica et à la famille des Plantaginacées selon la classification APG III. Elle était autrefois classée dans la famille des Scrofulariacées.
@@ -514,13 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie générale et végétative
-Plante herbacée tapissante, légèrement velue, dont la tige très courte (0,5 à 3 cm)[1], donne l'impression que les feuilles sont radicales. Feuilles elliptiques, luisantes, à bord cilié et très légèrement denté.
-Morphologie florale
-La floraison a lieu de juin à août.
-Fleurs hermaphrodites groupées en un petit racème à l'extrémité d'un long pédoncule (3 à 7 cm)[1], brunâtre, à poils courts. Chaque racème porte peu de fleurs (1 à 5), les pédicelles ont à leur base de petites bractées. Fleurs généralement bleu foncé, parfois rose lilas, à pétales légèrement striés et blancs à la base. Calice cilié. Quatre pétales, deux longues étamines encadrant un style lui aussi assez long. Pollinisation par les insectes ou autogame.
-Fruit et graines
-Le fruit est une petite capsule ciliée en forme de cœur. Dissémination par le vent (anémochorie).
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée tapissante, légèrement velue, dont la tige très courte (0,5 à 3 cm), donne l'impression que les feuilles sont radicales. Feuilles elliptiques, luisantes, à bord cilié et très légèrement denté.
 </t>
         </is>
       </c>
@@ -546,12 +558,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de juin à août.
+Fleurs hermaphrodites groupées en un petit racème à l'extrémité d'un long pédoncule (3 à 7 cm), brunâtre, à poils courts. Chaque racème porte peu de fleurs (1 à 5), les pédicelles ont à leur base de petites bractées. Fleurs généralement bleu foncé, parfois rose lilas, à pétales légèrement striés et blancs à la base. Calice cilié. Quatre pétales, deux longues étamines encadrant un style lui aussi assez long. Pollinisation par les insectes ou autogame.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Veronica_aphylla</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veronica_aphylla</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une petite capsule ciliée en forme de cœur. Dissémination par le vent (anémochorie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Veronica_aphylla</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veronica_aphylla</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante vivace poussant en montagne, de 1 200 à 2 800 mètres d'altitude[1], dans les Alpes, le Jura et les Pyrénées. On la rencontre presque toujours sur sol calcaire, dans les pâturages et les lieux rocheux.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace poussant en montagne, de 1 200 à 2 800 mètres d'altitude, dans les Alpes, le Jura et les Pyrénées. On la rencontre presque toujours sur sol calcaire, dans les pâturages et les lieux rocheux.
 </t>
         </is>
       </c>
